--- a/output/data/df_shiny_wi.xlsx
+++ b/output/data/df_shiny_wi.xlsx
@@ -361,7 +361,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
     <col min="188" max="188" width="20.7109375" style="2" customWidth="1"/>
     <col min="189" max="189" width="20.7109375" style="2" customWidth="1"/>
   </cols>
@@ -374,107 +374,107 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>long_term_all_score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long_term_rev1_score</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>long_term_rev2_score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>long_term_rev3_score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>short_term_all_score</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>short_term_rev1_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>short_term_rev2_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>short_term_rev3_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>manufacturer</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>website</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>release_year</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>market_status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>main_use</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>device_cost</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>device_cost_info</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>wearable_type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>size_rect_mm</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>size_round_mm</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>weight_gr</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>long_term_all_score</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>long_term_rev1_score</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>long_term_rev2_score</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>long_term_rev3_score</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>short_term_all_score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>short_term_rev1_score</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>short_term_rev2_score</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>short_term_rev3_score</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -1319,83 +1319,83 @@
           <t>001_sia_wd_emp</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>6.7</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>Empatica</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>E4</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>https://www.empatica.com/research/e4/</t>
         </is>
       </c>
-      <c r="E2" s="2">
+      <c r="M2" s="2">
         <v>42005</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Discontinued</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Research</t>
         </is>
       </c>
-      <c r="H2">
+      <c r="P2">
         <v>1542</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>one-time purchase price including a device + software</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Watch</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Wrist</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>L44xW40xH16</t>
         </is>
       </c>
-      <c r="N2">
+      <c r="V2">
         <v>40</v>
-      </c>
-      <c r="O2">
-        <v>6.7</v>
-      </c>
-      <c r="P2">
-        <v>8</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <v>7</v>
-      </c>
-      <c r="S2">
-        <v>5</v>
-      </c>
-      <c r="T2">
-        <v>7</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2">
-        <v>6</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1745,83 +1745,83 @@
           <t>002_sia_wd_emp</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>5.7</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>Empatica</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>EmbracePlus</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>https://www.empatica.com/embraceplus/</t>
         </is>
       </c>
-      <c r="E3" s="2">
+      <c r="M3" s="2">
         <v>43831</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Current</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Research &amp; Clinical</t>
         </is>
       </c>
-      <c r="H3">
+      <c r="P3">
         <v>1984</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>three year bundle per a device + software (25% academic discount available)</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Watch</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Wrist</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>D32xH15</t>
         </is>
       </c>
-      <c r="N3">
+      <c r="V3">
         <v>38</v>
-      </c>
-      <c r="O3">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>9</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <v>8</v>
-      </c>
-      <c r="S3">
-        <v>5.7</v>
-      </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <v>5</v>
-      </c>
-      <c r="V3">
-        <v>6</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
